--- a/TestData/Chat.xlsx
+++ b/TestData/Chat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="54">
   <si>
     <t>Account Type</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Carrier</t>
   </si>
   <si>
-    <t>changepondtest10@yahoo.com</t>
-  </si>
-  <si>
     <t>Password1</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>Shipper User</t>
   </si>
   <si>
-    <t>karthirko29@gmail.com</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -111,31 +105,79 @@
     <t>Carrier User</t>
   </si>
   <si>
-    <t>Scoular Shipper 51</t>
+    <t>ChatImage</t>
+  </si>
+  <si>
+    <t>ChatDoc</t>
+  </si>
+  <si>
+    <t>Chat_With_Carrier_TC001</t>
+  </si>
+  <si>
+    <t>Chat_With_Shipper_Admin_TC002</t>
+  </si>
+  <si>
+    <t>Chat_With_Shipper_User_TC003</t>
+  </si>
+  <si>
+    <t>Group_Chat_TC004</t>
+  </si>
+  <si>
+    <t>Esther Gray</t>
+  </si>
+  <si>
+    <t>AutomationUser01</t>
+  </si>
+  <si>
+    <t>changepondrogertest6@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationUser02</t>
+  </si>
+  <si>
+    <t>VERIFY_MESSAGE</t>
+  </si>
+  <si>
+    <t>VERIFY_DOCUMENT</t>
+  </si>
+  <si>
+    <t>VERIFY_IMAGE</t>
+  </si>
+  <si>
+    <t>Message Verified Successfully</t>
+  </si>
+  <si>
+    <t>Image Verified Successfully</t>
+  </si>
+  <si>
+    <t>Document Verified Successfully</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Daniel</t>
   </si>
   <si>
-    <t>CP Shipper Admin</t>
-  </si>
-  <si>
-    <t>ChatImage</t>
-  </si>
-  <si>
-    <t>ChatDoc</t>
-  </si>
-  <si>
-    <t>Hi Daniel,Please Ignore, Test Message from Automation script</t>
-  </si>
-  <si>
-    <t>Chat_With_Carrier_TC001</t>
-  </si>
-  <si>
-    <t>Chat_With_Shipper_Admin_TC002</t>
-  </si>
-  <si>
-    <t>Chat_With_Shipper_User_TC003</t>
+    <t>Karthikeyan Swaminathan</t>
+  </si>
+  <si>
+    <t>changepondtest12@yahoo.com</t>
+  </si>
+  <si>
+    <t>Hi AutomationUser02</t>
+  </si>
+  <si>
+    <t>Hi Esther Gray</t>
+  </si>
+  <si>
+    <t>Hi AutomationUser01</t>
+  </si>
+  <si>
+    <t>Hi All</t>
+  </si>
+  <si>
+    <t>AutomationUser01;Esther Gray</t>
   </si>
 </sst>
 </file>
@@ -181,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,12 +246,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -220,6 +273,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -525,98 +585,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="D3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -624,476 +734,952 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>24</v>
+      <c r="H12" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/Chat.xlsx
+++ b/TestData/Chat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="55">
   <si>
     <t>Account Type</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>AutomationUser01;Esther Gray</t>
+  </si>
+  <si>
+    <t>Karthikeyan</t>
   </si>
 </sst>
 </file>
@@ -587,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="C3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -736,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Chat.xlsx
+++ b/TestData/Chat.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Chat Details" sheetId="2" r:id="rId3"/>
+    <sheet name="Deal_Chat Details" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="69">
   <si>
     <t>Account Type</t>
   </si>
@@ -181,6 +182,48 @@
   </si>
   <si>
     <t>Karthikeyan</t>
+  </si>
+  <si>
+    <t>Automation Test ID</t>
+  </si>
+  <si>
+    <t>Deal Name</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperUser_TC001</t>
+  </si>
+  <si>
+    <t>AutoDeal</t>
+  </si>
+  <si>
+    <t>Send Message</t>
+  </si>
+  <si>
+    <t>Message send successfully</t>
+  </si>
+  <si>
+    <t>Hi John</t>
+  </si>
+  <si>
+    <t>Opertion</t>
+  </si>
+  <si>
+    <t>SEND</t>
+  </si>
+  <si>
+    <t>Message verified successfully</t>
+  </si>
+  <si>
+    <t>VERIFY</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperAdmin_TC002</t>
+  </si>
+  <si>
+    <t>Deals_Chat_CarrierUser_TC003</t>
+  </si>
+  <si>
+    <t>Hi Stan</t>
   </si>
 </sst>
 </file>
@@ -265,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -283,6 +326,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -590,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -673,7 +719,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,4 +1734,164 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/Chat.xlsx
+++ b/TestData/Chat.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Chat Details" sheetId="2" r:id="rId3"/>
     <sheet name="Deal_Chat Details" sheetId="4" r:id="rId4"/>
+    <sheet name="Deal_Chat_Connection" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="78">
   <si>
     <t>Account Type</t>
   </si>
@@ -224,6 +225,33 @@
   </si>
   <si>
     <t>Hi Stan</t>
+  </si>
+  <si>
+    <t>ChatConnection_TC001</t>
+  </si>
+  <si>
+    <t>No Channel Found</t>
+  </si>
+  <si>
+    <t>VERIFY_BANNER</t>
+  </si>
+  <si>
+    <t>Get Started Button is Disabled</t>
+  </si>
+  <si>
+    <t>ACCEPT_CONNECTION</t>
+  </si>
+  <si>
+    <t>Connection Accepted</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ChatConnection_TC002</t>
+  </si>
+  <si>
+    <t>Hi Zeb</t>
   </si>
 </sst>
 </file>
@@ -308,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -329,6 +357,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1740,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,10 +1797,10 @@
         <v>62</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>13</v>
@@ -1890,6 +1919,242 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/Chat.xlsx
+++ b/TestData/Chat.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Chat Details" sheetId="2" r:id="rId3"/>
-    <sheet name="Deal_Chat Details" sheetId="4" r:id="rId4"/>
-    <sheet name="Deal_Chat_Connection" sheetId="5" r:id="rId5"/>
+    <sheet name="Login 1" sheetId="6" r:id="rId1"/>
+    <sheet name="Login 2" sheetId="7" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Chat Details" sheetId="2" r:id="rId5"/>
+    <sheet name="Deal_Chat Details" sheetId="4" r:id="rId6"/>
+    <sheet name="Deal_Chat_Connection" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="102">
   <si>
     <t>Account Type</t>
   </si>
@@ -252,6 +254,78 @@
   </si>
   <si>
     <t>Hi Zeb</t>
+  </si>
+  <si>
+    <t>Invite_Chat_to_Carrier_TC001</t>
+  </si>
+  <si>
+    <t>Send_Chat_to_Carrier_TC002</t>
+  </si>
+  <si>
+    <t>ReSend_Chat_to_Carrier_TC003</t>
+  </si>
+  <si>
+    <t>How are you?</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_Carrier_TC004</t>
+  </si>
+  <si>
+    <t>Send Image</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_Carrier_TC005</t>
+  </si>
+  <si>
+    <t>Leave_Chat_With_Carrrier_TC006</t>
+  </si>
+  <si>
+    <t>Invite_Chat_to_ShipperAdmin_TC001</t>
+  </si>
+  <si>
+    <t>Send_Chat_to_ShipperAdmin_TC002</t>
+  </si>
+  <si>
+    <t>ReSend_Chat_to_ShipperAdmin_TC003</t>
+  </si>
+  <si>
+    <t>send image</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_ShipperAdmin_TC004</t>
+  </si>
+  <si>
+    <t>send document</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_ShipperAdmin_TC005</t>
+  </si>
+  <si>
+    <t>Leave_Chat_With_ShipperAdmin_TC006</t>
+  </si>
+  <si>
+    <t>Invite_Chat_to_ShipperUser_TC001</t>
+  </si>
+  <si>
+    <t>Send_Chat_to_ShipperUser_TC002</t>
+  </si>
+  <si>
+    <t>ReSend_Chat_to_ShipperUser_TC003</t>
+  </si>
+  <si>
+    <t>Hi Again</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_Shipperuser_TC004</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_Shipperuser_TC005</t>
+  </si>
+  <si>
+    <t>Leave_Chat_With_ShipperUser_TC006</t>
+  </si>
+  <si>
+    <t>Leave chat</t>
   </si>
 </sst>
 </file>
@@ -336,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -358,6 +432,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -663,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,6 +781,110 @@
         <v>4</v>
       </c>
     </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
@@ -743,7 +924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -810,17 +991,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
@@ -1759,13 +1940,1609 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1925,11 +3702,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
